--- a/importarExemplo.xlsx
+++ b/importarExemplo.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cgugovbr-my.sharepoint.com/personal/pedro_guimaraes_cgu_gov_br/Documents/Pedro/PPGGO/MODELO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="8_{986A525D-BD1D-4EE4-ACE3-30BB0ED01BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7057CB8-5E19-4351-A859-F909F4CC4C2C}"/>
+  <xr:revisionPtr revIDLastSave="329" documentId="8_{DAE8B9E6-7CCD-4F8B-BF80-984490CB1294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19B890F2-282D-4FE9-A772-7CDE70022C6C}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{D33BA194-2E5A-46CB-BF13-D006A9E4191B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D33BA194-2E5A-46CB-BF13-D006A9E4191B}"/>
   </bookViews>
   <sheets>
-    <sheet name="unidades" sheetId="1" r:id="rId1"/>
+    <sheet name="unidades" sheetId="5" r:id="rId1"/>
     <sheet name="perfis" sheetId="2" r:id="rId2"/>
+    <sheet name="criterios" sheetId="3" r:id="rId3"/>
+    <sheet name="instrucoes" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,16 +30,36 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="84">
   <si>
     <t>Unidade</t>
   </si>
@@ -93,40 +115,262 @@
     <t>x8</t>
   </si>
   <si>
+    <t>Estagio</t>
+  </si>
+  <si>
+    <t>TCC</t>
+  </si>
+  <si>
+    <t>Dissertacao</t>
+  </si>
+  <si>
+    <t>EstagioDoc</t>
+  </si>
+  <si>
+    <t>n_orient</t>
+  </si>
+  <si>
+    <t>h_orient</t>
+  </si>
+  <si>
+    <t>Tese</t>
+  </si>
+  <si>
     <t>outras</t>
   </si>
   <si>
+    <t>peq</t>
+  </si>
+  <si>
+    <t>Critério</t>
+  </si>
+  <si>
+    <t>Peso</t>
+  </si>
+  <si>
+    <t>Menor número</t>
+  </si>
+  <si>
+    <t>Menor P-Eq</t>
+  </si>
+  <si>
+    <t>Mais tempo</t>
+  </si>
+  <si>
+    <t>Equilíbrio CH</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>critérios</t>
+  </si>
+  <si>
+    <t>lambdamax</t>
+  </si>
+  <si>
+    <t>Consistency Index</t>
+  </si>
+  <si>
+    <t>Random Index</t>
+  </si>
+  <si>
+    <t>Consistency Ratio</t>
+  </si>
+  <si>
+    <t>Critérios</t>
+  </si>
+  <si>
+    <t>saaty2003, 2004</t>
+  </si>
+  <si>
+    <r>
+      <t>Na aba '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>unidades</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>', informe o nome ou sigla na coluna "A".</t>
+    </r>
+  </si>
+  <si>
+    <t>Informe o número de aulas semanais na coluna "B", o número de diretores na coluna "E" e de coordenadores na coluna "F".</t>
+  </si>
+  <si>
+    <t>Nas colunas "G" a "K" informe a quantidade de orientandos de cada tipo. Serão preenchidas as colunas "C" e "D" automaticamente.</t>
+  </si>
+  <si>
+    <r>
+      <t>Na aba '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>perfis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>', cada coluna representa um perfil (x1, x2, ...)</t>
+    </r>
+  </si>
+  <si>
+    <t>Informe em cada linha a característica de cada perfil:</t>
+  </si>
+  <si>
+    <t>- número de aulas semanais</t>
+  </si>
+  <si>
+    <t>-  horas disponíveis para orientações</t>
+  </si>
+  <si>
+    <t>- número máximo de orientandos</t>
+  </si>
+  <si>
+    <t>diretor/coord</t>
+  </si>
+  <si>
+    <t>- valor 1 indica que aquele perfil é diretor ou coordenador</t>
+  </si>
+  <si>
+    <t>- tempo disponível para outras atividades</t>
+  </si>
+  <si>
+    <t>- fator de professor-equivalente</t>
+  </si>
+  <si>
+    <t>É possível acrescentar novos perfis ou novas variáveis/restrições</t>
+  </si>
+  <si>
+    <r>
+      <t>Na aba '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>criterios</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>', preencha nas células D2 a D7 os critérios. Eles serão automaticamente refletidos nas células E1 a J1</t>
+    </r>
+  </si>
+  <si>
+    <t>A seguir preencha a matriz com as comparações. Cada célula corresponde ao grau de importância ou dominância</t>
+  </si>
+  <si>
+    <t>do critério à esquerda (linha) sobre o critério acima (coluna). Exemplos:</t>
+  </si>
+  <si>
+    <t>- Célula E3 é o grau de dominância do critério em D3 sobre o critério em E1.</t>
+  </si>
+  <si>
+    <t>Exemplo certo</t>
+  </si>
+  <si>
+    <t>Exemplo de erro</t>
+  </si>
+  <si>
+    <t>- Célula F2 é o grau de dominância do critério em D2 sobre o critério em F1.</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um valor maior que 1 indica que o critério é mais importante/dominante, </t>
+  </si>
+  <si>
+    <t>1/3</t>
+  </si>
+  <si>
+    <t>e um valor menor que 1 indica que o critério da coluna é mais importante</t>
+  </si>
+  <si>
+    <t>1/2</t>
+  </si>
+  <si>
+    <t>A matriz deve ser preenchida de forma recíproca, isto é, o valor de comparação</t>
+  </si>
+  <si>
+    <t>1/4</t>
+  </si>
+  <si>
+    <t>do critério A com o critério B é igual a 1 dividido pela comparação de B com A.</t>
+  </si>
+  <si>
+    <t>O valor 3 não é recíproco de 1/2</t>
+  </si>
+  <si>
+    <t>Caso os valores estejam incorretos a célula ficará vermelha.</t>
+  </si>
+  <si>
+    <t>Se houver um critério informado na coluna D mas as células correspondentes não estiverem preenchidas,</t>
+  </si>
+  <si>
+    <t>elas ficarão marcadas em vermelho claro.</t>
+  </si>
+  <si>
+    <t>Se houver valores preenchidos em uma linha ou coluna mas não houver critério preenchido, as células</t>
+  </si>
+  <si>
+    <t>ficarão marcadas em amarelo.</t>
+  </si>
+  <si>
+    <t>Após preencher a matriz, o peso de cada critério será calculao e mostrado na coluna "B"</t>
+  </si>
+  <si>
+    <t>Esses serão os pesos usados no cálculo da pontuação para otimização.</t>
+  </si>
+  <si>
     <t>H_orient</t>
   </si>
   <si>
     <t>N_orient</t>
-  </si>
-  <si>
-    <t>Estagio</t>
-  </si>
-  <si>
-    <t>TCC</t>
-  </si>
-  <si>
-    <t>Dissertacao</t>
-  </si>
-  <si>
-    <t>Tese</t>
-  </si>
-  <si>
-    <t>EstagioDoc</t>
-  </si>
-  <si>
-    <t>horas</t>
-  </si>
-  <si>
-    <t>numero</t>
-  </si>
-  <si>
-    <t>h_orient</t>
-  </si>
-  <si>
-    <t>n_orient</t>
   </si>
   <si>
     <t>FAEFI</t>
@@ -142,7 +386,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,8 +397,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -164,10 +440,70 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -177,14 +513,295 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="21">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD653"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE1CCF0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -493,268 +1110,762 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE730446-7824-4116-9627-BA51844BEEE0}">
-  <dimension ref="A1:M6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{267BC89E-BDC5-4D60-BE22-67A89020B028}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="6" width="8.88671875" style="43"/>
+    <col min="7" max="11" width="10.33203125" style="43" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="J1" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="40">
+        <v>439</v>
+      </c>
+      <c r="C2" s="41">
+        <f>IF(A2="","",G2/2+H2/2+K2/2+I2*1.25+J2*2)</f>
+        <v>212.75</v>
+      </c>
+      <c r="D2" s="41">
+        <f>IF(A2="","",SUM(G2:K2))</f>
+        <v>292</v>
+      </c>
+      <c r="E2" s="40">
+        <v>1</v>
+      </c>
+      <c r="F2" s="40">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="G2" s="42">
+        <v>52</v>
+      </c>
+      <c r="H2" s="40">
+        <v>137</v>
+      </c>
+      <c r="I2" s="40">
         <v>25</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>640</v>
-      </c>
-      <c r="C2">
-        <v>35</v>
-      </c>
-      <c r="D2">
-        <v>70</v>
-      </c>
-      <c r="E2">
+      <c r="J2" s="40">
+        <v>32</v>
+      </c>
+      <c r="K2" s="40">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="40">
+        <v>420</v>
+      </c>
+      <c r="C3" s="41">
+        <f t="shared" ref="C3:C33" si="0">IF(A3="","",G3/2+H3/2+K3/2+I3*1.25+J3*2)</f>
+        <v>60</v>
+      </c>
+      <c r="D3" s="41">
+        <f t="shared" ref="D3:D33" si="1">IF(A3="","",SUM(G3:K3))</f>
+        <v>90</v>
+      </c>
+      <c r="E3" s="40">
         <v>1</v>
       </c>
-      <c r="F2">
+      <c r="F3" s="40">
         <v>3</v>
       </c>
-      <c r="G2" s="1">
-        <v>30</v>
-      </c>
-      <c r="H2" s="1">
+      <c r="G3" s="42">
+        <v>20</v>
+      </c>
+      <c r="H3" s="40">
         <v>40</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1">
-        <f t="shared" ref="L2:L6" si="0">G2/2+H2/2+K2/2+I2*1.25+J2*2</f>
-        <v>35</v>
-      </c>
-      <c r="M2" s="1">
-        <f t="shared" ref="M2:M6" si="1">SUM(G2:K2)</f>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3">
-        <v>420</v>
-      </c>
-      <c r="C3">
-        <v>60</v>
-      </c>
-      <c r="D3">
-        <v>90</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
-      <c r="G3" s="1">
+      <c r="I3" s="40">
         <v>20</v>
       </c>
-      <c r="H3" s="1">
-        <v>40</v>
-      </c>
-      <c r="I3" s="1">
-        <v>20</v>
-      </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1">
+      <c r="J3" s="40"/>
+      <c r="K3" s="40">
         <v>10</v>
       </c>
-      <c r="L3" s="1">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="M3" s="1">
-        <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="40">
         <v>1080</v>
       </c>
-      <c r="C4">
-        <v>42.5</v>
-      </c>
-      <c r="D4">
-        <v>40</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4" s="1">
-        <v>10</v>
-      </c>
-      <c r="H4" s="1">
-        <v>10</v>
-      </c>
-      <c r="I4" s="1">
-        <v>10</v>
-      </c>
-      <c r="J4" s="1">
-        <v>10</v>
-      </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1">
+      <c r="C4" s="41">
         <f t="shared" si="0"/>
         <v>42.5</v>
       </c>
-      <c r="M4" s="1">
+      <c r="D4" s="41">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5">
+      <c r="E4" s="40">
+        <v>1</v>
+      </c>
+      <c r="F4" s="40">
+        <v>2</v>
+      </c>
+      <c r="G4" s="42">
+        <v>10</v>
+      </c>
+      <c r="H4" s="40">
+        <v>10</v>
+      </c>
+      <c r="I4" s="40">
+        <v>10</v>
+      </c>
+      <c r="J4" s="40">
+        <v>10</v>
+      </c>
+      <c r="K4" s="40"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="40">
         <v>720</v>
       </c>
-      <c r="C5">
-        <v>196.75</v>
-      </c>
-      <c r="D5">
-        <v>176</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1">
-        <v>23</v>
-      </c>
-      <c r="H5" s="1">
-        <v>30</v>
-      </c>
-      <c r="I5" s="1">
-        <v>47</v>
-      </c>
-      <c r="J5" s="1">
-        <v>49</v>
-      </c>
-      <c r="K5" s="1">
-        <v>27</v>
-      </c>
-      <c r="L5" s="1">
+      <c r="C5" s="41">
         <f t="shared" si="0"/>
         <v>196.75</v>
       </c>
-      <c r="M5" s="1">
+      <c r="D5" s="41">
         <f t="shared" si="1"/>
         <v>176</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6">
+      <c r="E5" s="40">
+        <v>1</v>
+      </c>
+      <c r="F5" s="40">
+        <v>1</v>
+      </c>
+      <c r="G5" s="42">
+        <v>23</v>
+      </c>
+      <c r="H5" s="40">
+        <v>30</v>
+      </c>
+      <c r="I5" s="40">
+        <v>47</v>
+      </c>
+      <c r="J5" s="40">
+        <v>49</v>
+      </c>
+      <c r="K5" s="40">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="40">
         <v>248</v>
       </c>
-      <c r="C6">
-        <v>30</v>
-      </c>
-      <c r="D6">
-        <v>42</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1">
-        <v>15</v>
-      </c>
-      <c r="H6" s="1">
-        <v>15</v>
-      </c>
-      <c r="I6" s="1">
-        <v>12</v>
-      </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1">
+      <c r="C6" s="41">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="M6" s="1">
+      <c r="D6" s="41">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
+      <c r="E6" s="40">
+        <v>1</v>
+      </c>
+      <c r="F6" s="40">
+        <v>1</v>
+      </c>
+      <c r="G6" s="42">
+        <v>15</v>
+      </c>
+      <c r="H6" s="40">
+        <v>15</v>
+      </c>
+      <c r="I6" s="40">
+        <v>12</v>
+      </c>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="39"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D7" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="39"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D8" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="39"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D9" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="39"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D10" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="39"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D11" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="39"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D12" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="39"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D13" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="39"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D14" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="39"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D15" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="39"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D16" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="39"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D17" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="39"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="41" t="str">
+        <f>IF(A18="","",G18/2+H18/2+K18/2+I18*1.25+J18*2)</f>
+        <v/>
+      </c>
+      <c r="D18" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="39"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D19" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="39"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D20" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="39"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D21" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="39"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D22" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="39"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D23" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="39"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D24" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="39"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D25" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="39"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D26" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="39"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D27" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="39"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D28" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="39"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D29" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="40"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="39"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D30" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="39"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D31" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="39"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D32" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="40"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="39"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D33" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="40"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8BD36B9-6FBB-45BA-A574-F9F17B544986}">
-  <dimension ref="A1:I7"/>
+  <sheetPr>
+    <tabColor theme="8" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -819,7 +1930,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -848,7 +1959,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -935,7 +2046,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -961,6 +2072,1826 @@
       <c r="I7">
         <v>0</v>
       </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8">
+        <v>1.65</v>
+      </c>
+      <c r="C8">
+        <v>1.65</v>
+      </c>
+      <c r="D8">
+        <v>1.65</v>
+      </c>
+      <c r="E8">
+        <v>1.65</v>
+      </c>
+      <c r="F8">
+        <v>1.65</v>
+      </c>
+      <c r="G8">
+        <v>1.65</v>
+      </c>
+      <c r="H8">
+        <v>0.6</v>
+      </c>
+      <c r="I8">
+        <v>0.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{569C9C9D-7218-4623-9AA3-BBA76825F0FC}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:Y24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="15.5546875" style="6" customWidth="1"/>
+    <col min="5" max="7" width="10.33203125" style="6" customWidth="1"/>
+    <col min="8" max="9" width="8.88671875" style="6"/>
+    <col min="10" max="10" width="8.88671875" style="6" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="6"/>
+    <col min="12" max="12" width="13.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.6640625" style="6" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="3" t="str">
+        <f>IF(D2&lt;&gt;"",D2,"")</f>
+        <v>Menor número</v>
+      </c>
+      <c r="F1" s="3" t="str">
+        <f>IF(D3&lt;&gt;"",D3,"")</f>
+        <v>Menor P-Eq</v>
+      </c>
+      <c r="G1" s="3" t="str">
+        <f>IF(D4&lt;&gt;"",D4,"")</f>
+        <v>Mais tempo</v>
+      </c>
+      <c r="H1" s="3" t="str">
+        <f>IF(D5&lt;&gt;"",D5,"")</f>
+        <v>Equilíbrio CH</v>
+      </c>
+      <c r="I1" s="3" t="str">
+        <f>IF(D6&lt;&gt;"",D6,"")</f>
+        <v/>
+      </c>
+      <c r="J1" s="3" t="str">
+        <f>IF(D7&lt;&gt;"",D7,"")</f>
+        <v/>
+      </c>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4">
+        <v>1</v>
+      </c>
+      <c r="O1" s="4">
+        <v>2</v>
+      </c>
+      <c r="P1" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q1" s="4">
+        <v>4</v>
+      </c>
+      <c r="R1" s="4">
+        <v>5</v>
+      </c>
+      <c r="S1" s="4">
+        <v>6</v>
+      </c>
+      <c r="T1" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="U1" s="5"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="str">
+        <f t="shared" ref="A2:A7" si="0">IF(D13&lt;&gt;"",D13,"")</f>
+        <v>Menor número</v>
+      </c>
+      <c r="B2" s="8">
+        <f t="shared" ref="B2:B7" si="1">IF(D13&lt;&gt;"",AVERAGE(E13:J13),"")</f>
+        <v>0.13619152859074776</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="10">
+        <f>IF($D2="","",1)</f>
+        <v>1</v>
+      </c>
+      <c r="F2" s="11">
+        <v>3</v>
+      </c>
+      <c r="G2" s="11">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="H2" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="4">
+        <v>1</v>
+      </c>
+      <c r="N2" s="4" t="str">
+        <f>IF(AND(E2&lt;&gt;1,E2&lt;&gt;""),"errado","")</f>
+        <v/>
+      </c>
+      <c r="O2" s="4" t="str" cm="1">
+        <f t="array" aca="1" ref="O2" ca="1">IFERROR(IF(AND(INDIRECT(ADDRESS(1+$M2,4+O$1))&lt;&gt;"",ABS(INDIRECT(ADDRESS(1+$M2,4+O$1))-(1/INDIRECT(ADDRESS(1+O$1,4+$M2))))&gt;$T$1),"errado",""),"")</f>
+        <v/>
+      </c>
+      <c r="P2" s="4" t="str" cm="1">
+        <f t="array" aca="1" ref="P2" ca="1">IFERROR(IF(AND(INDIRECT(ADDRESS(1+$M2,4+P$1))&lt;&gt;"",ABS(INDIRECT(ADDRESS(1+$M2,4+P$1))-(1/INDIRECT(ADDRESS(1+P$1,4+$M2))))&gt;$T$1),"errado",""),"")</f>
+        <v/>
+      </c>
+      <c r="Q2" s="4" t="str" cm="1">
+        <f t="array" aca="1" ref="Q2" ca="1">IFERROR(IF(AND(INDIRECT(ADDRESS(1+$M2,4+Q$1))&lt;&gt;"",ABS(INDIRECT(ADDRESS(1+$M2,4+Q$1))-(1/INDIRECT(ADDRESS(1+Q$1,4+$M2))))&gt;$T$1),"errado",""),"")</f>
+        <v/>
+      </c>
+      <c r="R2" s="4" t="str" cm="1">
+        <f t="array" aca="1" ref="R2" ca="1">IFERROR(IF(AND(INDIRECT(ADDRESS(1+$M2,4+R$1))&lt;&gt;"",ABS(INDIRECT(ADDRESS(1+$M2,4+R$1))-(1/INDIRECT(ADDRESS(1+R$1,4+$M2))))&gt;$T$1),"errado",""),"")</f>
+        <v/>
+      </c>
+      <c r="S2" s="4" t="str" cm="1">
+        <f t="array" aca="1" ref="S2" ca="1">IFERROR(IF(AND(INDIRECT(ADDRESS(1+$M2,4+S$1))&lt;&gt;"",ABS(INDIRECT(ADDRESS(1+$M2,4+S$1))-(1/INDIRECT(ADDRESS(1+S$1,4+$M2))))&gt;$T$1),"errado",""),"")</f>
+        <v/>
+      </c>
+      <c r="T2" s="4">
+        <f ca="1">COUNTIF(N2:S7,"errado")</f>
+        <v>0</v>
+      </c>
+      <c r="U2" s="5"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Menor P-Eq</v>
+      </c>
+      <c r="B3" s="8">
+        <f t="shared" si="1"/>
+        <v>6.2556310969296064E-2</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="11">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="F3" s="10">
+        <f>IF($D3="","",1)</f>
+        <v>1</v>
+      </c>
+      <c r="G3" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="H3" s="11">
+        <v>0.16667000000000001</v>
+      </c>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="4">
+        <v>2</v>
+      </c>
+      <c r="N3" s="4" t="str" cm="1">
+        <f t="array" aca="1" ref="N3" ca="1">IFERROR(IF(AND(INDIRECT(ADDRESS(1+$M3,4+N$1))&lt;&gt;"",ABS(INDIRECT(ADDRESS(1+$M3,4+N$1))-(1/INDIRECT(ADDRESS(1+N$1,4+$M3))))&gt;$T$1),"errado",""),"")</f>
+        <v/>
+      </c>
+      <c r="O3" s="4" t="str">
+        <f>IF(AND(F3&lt;&gt;1,F3&lt;&gt;""),"errado","")</f>
+        <v/>
+      </c>
+      <c r="P3" s="4" t="str" cm="1">
+        <f t="array" aca="1" ref="P3" ca="1">IFERROR(IF(AND(INDIRECT(ADDRESS(1+$M3,4+P$1))&lt;&gt;"",ABS(INDIRECT(ADDRESS(1+$M3,4+P$1))-(1/INDIRECT(ADDRESS(1+P$1,4+$M3))))&gt;$T$1),"errado",""),"")</f>
+        <v/>
+      </c>
+      <c r="Q3" s="4" t="str" cm="1">
+        <f t="array" aca="1" ref="Q3" ca="1">IFERROR(IF(AND(INDIRECT(ADDRESS(1+$M3,4+Q$1))&lt;&gt;"",ABS(INDIRECT(ADDRESS(1+$M3,4+Q$1))-(1/INDIRECT(ADDRESS(1+Q$1,4+$M3))))&gt;$T$1),"errado",""),"")</f>
+        <v/>
+      </c>
+      <c r="R3" s="4" t="str" cm="1">
+        <f t="array" aca="1" ref="R3" ca="1">IFERROR(IF(AND(INDIRECT(ADDRESS(1+$M3,4+R$1))&lt;&gt;"",ABS(INDIRECT(ADDRESS(1+$M3,4+R$1))-(1/INDIRECT(ADDRESS(1+R$1,4+$M3))))&gt;$T$1),"errado",""),"")</f>
+        <v/>
+      </c>
+      <c r="S3" s="4" t="str" cm="1">
+        <f t="array" aca="1" ref="S3" ca="1">IFERROR(IF(AND(INDIRECT(ADDRESS(1+$M3,4+S$1))&lt;&gt;"",ABS(INDIRECT(ADDRESS(1+$M3,4+S$1))-(1/INDIRECT(ADDRESS(1+S$1,4+$M3))))&gt;$T$1),"errado",""),"")</f>
+        <v/>
+      </c>
+      <c r="T3" s="4"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Mais tempo</v>
+      </c>
+      <c r="B4" s="8">
+        <f t="shared" si="1"/>
+        <v>0.30930635570252762</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="11">
+        <v>3</v>
+      </c>
+      <c r="F4" s="11">
+        <v>5</v>
+      </c>
+      <c r="G4" s="10">
+        <f>IF($D4="","",1)</f>
+        <v>1</v>
+      </c>
+      <c r="H4" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="4">
+        <v>3</v>
+      </c>
+      <c r="N4" s="4" t="str" cm="1">
+        <f t="array" aca="1" ref="N4" ca="1">IFERROR(IF(AND(INDIRECT(ADDRESS(1+$M4,4+N$1))&lt;&gt;"",ABS(INDIRECT(ADDRESS(1+$M4,4+N$1))-(1/INDIRECT(ADDRESS(1+N$1,4+$M4))))&gt;$T$1),"errado",""),"")</f>
+        <v/>
+      </c>
+      <c r="O4" s="4" t="str" cm="1">
+        <f t="array" aca="1" ref="O4" ca="1">IFERROR(IF(AND(INDIRECT(ADDRESS(1+$M4,4+O$1))&lt;&gt;"",ABS(INDIRECT(ADDRESS(1+$M4,4+O$1))-(1/INDIRECT(ADDRESS(1+O$1,4+$M4))))&gt;$T$1),"errado",""),"")</f>
+        <v/>
+      </c>
+      <c r="P4" s="4" t="str">
+        <f>IF(AND(G4&lt;&gt;1,G4&lt;&gt;""),"errado","")</f>
+        <v/>
+      </c>
+      <c r="Q4" s="4" t="str" cm="1">
+        <f t="array" aca="1" ref="Q4" ca="1">IFERROR(IF(AND(INDIRECT(ADDRESS(1+$M4,4+Q$1))&lt;&gt;"",ABS(INDIRECT(ADDRESS(1+$M4,4+Q$1))-(1/INDIRECT(ADDRESS(1+Q$1,4+$M4))))&gt;$T$1),"errado",""),"")</f>
+        <v/>
+      </c>
+      <c r="R4" s="4" t="str" cm="1">
+        <f t="array" aca="1" ref="R4" ca="1">IFERROR(IF(AND(INDIRECT(ADDRESS(1+$M4,4+R$1))&lt;&gt;"",ABS(INDIRECT(ADDRESS(1+$M4,4+R$1))-(1/INDIRECT(ADDRESS(1+R$1,4+$M4))))&gt;$T$1),"errado",""),"")</f>
+        <v/>
+      </c>
+      <c r="S4" s="4" t="str" cm="1">
+        <f t="array" aca="1" ref="S4" ca="1">IFERROR(IF(AND(INDIRECT(ADDRESS(1+$M4,4+S$1))&lt;&gt;"",ABS(INDIRECT(ADDRESS(1+$M4,4+S$1))-(1/INDIRECT(ADDRESS(1+S$1,4+$M4))))&gt;$T$1),"errado",""),"")</f>
+        <v/>
+      </c>
+      <c r="T4" s="4"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Equilíbrio CH</v>
+      </c>
+      <c r="B5" s="8">
+        <f t="shared" si="1"/>
+        <v>0.49194580473742855</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="11">
+        <v>4</v>
+      </c>
+      <c r="F5" s="11">
+        <v>6</v>
+      </c>
+      <c r="G5" s="11">
+        <v>2</v>
+      </c>
+      <c r="H5" s="10">
+        <f>IF($D5="","",1)</f>
+        <v>1</v>
+      </c>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="4">
+        <v>4</v>
+      </c>
+      <c r="N5" s="4" t="str" cm="1">
+        <f t="array" aca="1" ref="N5" ca="1">IFERROR(IF(AND(INDIRECT(ADDRESS(1+$M5,4+N$1))&lt;&gt;"",ABS(INDIRECT(ADDRESS(1+$M5,4+N$1))-(1/INDIRECT(ADDRESS(1+N$1,4+$M5))))&gt;$T$1),"errado",""),"")</f>
+        <v/>
+      </c>
+      <c r="O5" s="4" t="str" cm="1">
+        <f t="array" aca="1" ref="O5" ca="1">IFERROR(IF(AND(INDIRECT(ADDRESS(1+$M5,4+O$1))&lt;&gt;"",ABS(INDIRECT(ADDRESS(1+$M5,4+O$1))-(1/INDIRECT(ADDRESS(1+O$1,4+$M5))))&gt;$T$1),"errado",""),"")</f>
+        <v/>
+      </c>
+      <c r="P5" s="4" t="str" cm="1">
+        <f t="array" aca="1" ref="P5" ca="1">IFERROR(IF(AND(INDIRECT(ADDRESS(1+$M5,4+P$1))&lt;&gt;"",ABS(INDIRECT(ADDRESS(1+$M5,4+P$1))-(1/INDIRECT(ADDRESS(1+P$1,4+$M5))))&gt;$T$1),"errado",""),"")</f>
+        <v/>
+      </c>
+      <c r="Q5" s="4" t="str">
+        <f>IF(AND(H5&lt;&gt;1,H5&lt;&gt;""),"errado","")</f>
+        <v/>
+      </c>
+      <c r="R5" s="4" t="str" cm="1">
+        <f t="array" aca="1" ref="R5" ca="1">IFERROR(IF(AND(INDIRECT(ADDRESS(1+$M5,4+R$1))&lt;&gt;"",ABS(INDIRECT(ADDRESS(1+$M5,4+R$1))-(1/INDIRECT(ADDRESS(1+R$1,4+$M5))))&gt;$T$1),"errado",""),"")</f>
+        <v/>
+      </c>
+      <c r="S5" s="4" t="str" cm="1">
+        <f t="array" aca="1" ref="S5" ca="1">IFERROR(IF(AND(INDIRECT(ADDRESS(1+$M5,4+S$1))&lt;&gt;"",ABS(INDIRECT(ADDRESS(1+$M5,4+S$1))-(1/INDIRECT(ADDRESS(1+S$1,4+$M5))))&gt;$T$1),"errado",""),"")</f>
+        <v/>
+      </c>
+      <c r="T5" s="4"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B6" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="10" t="str">
+        <f>IF($D6="","",1)</f>
+        <v/>
+      </c>
+      <c r="J6" s="11"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="4">
+        <v>5</v>
+      </c>
+      <c r="N6" s="4" t="str" cm="1">
+        <f t="array" aca="1" ref="N6" ca="1">IFERROR(IF(AND(INDIRECT(ADDRESS(1+$M6,4+N$1))&lt;&gt;"",ABS(INDIRECT(ADDRESS(1+$M6,4+N$1))-(1/INDIRECT(ADDRESS(1+N$1,4+$M6))))&gt;$T$1),"errado",""),"")</f>
+        <v/>
+      </c>
+      <c r="O6" s="4" t="str" cm="1">
+        <f t="array" aca="1" ref="O6" ca="1">IFERROR(IF(AND(INDIRECT(ADDRESS(1+$M6,4+O$1))&lt;&gt;"",ABS(INDIRECT(ADDRESS(1+$M6,4+O$1))-(1/INDIRECT(ADDRESS(1+O$1,4+$M6))))&gt;$T$1),"errado",""),"")</f>
+        <v/>
+      </c>
+      <c r="P6" s="4" t="str" cm="1">
+        <f t="array" aca="1" ref="P6" ca="1">IFERROR(IF(AND(INDIRECT(ADDRESS(1+$M6,4+P$1))&lt;&gt;"",ABS(INDIRECT(ADDRESS(1+$M6,4+P$1))-(1/INDIRECT(ADDRESS(1+P$1,4+$M6))))&gt;$T$1),"errado",""),"")</f>
+        <v/>
+      </c>
+      <c r="Q6" s="4" t="str" cm="1">
+        <f t="array" aca="1" ref="Q6" ca="1">IFERROR(IF(AND(INDIRECT(ADDRESS(1+$M6,4+Q$1))&lt;&gt;"",ABS(INDIRECT(ADDRESS(1+$M6,4+Q$1))-(1/INDIRECT(ADDRESS(1+Q$1,4+$M6))))&gt;$T$1),"errado",""),"")</f>
+        <v/>
+      </c>
+      <c r="R6" s="4" t="str">
+        <f>IF(AND(I6&lt;&gt;1,I6&lt;&gt;""),"errado","")</f>
+        <v/>
+      </c>
+      <c r="S6" s="4" t="str" cm="1">
+        <f t="array" aca="1" ref="S6" ca="1">IFERROR(IF(AND(INDIRECT(ADDRESS(1+$M6,4+S$1))&lt;&gt;"",ABS(INDIRECT(ADDRESS(1+$M6,4+S$1))-(1/INDIRECT(ADDRESS(1+S$1,4+$M6))))&gt;$T$1),"errado",""),"")</f>
+        <v/>
+      </c>
+      <c r="T6" s="4"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B7" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="10" t="str">
+        <f>IF($D7="","",1)</f>
+        <v/>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="4">
+        <v>6</v>
+      </c>
+      <c r="N7" s="4" t="str" cm="1">
+        <f t="array" aca="1" ref="N7" ca="1">IFERROR(IF(AND(INDIRECT(ADDRESS(1+$M7,4+N$1))&lt;&gt;"",ABS(INDIRECT(ADDRESS(1+$M7,4+N$1))-(1/INDIRECT(ADDRESS(1+N$1,4+$M7))))&gt;$T$1),"errado",""),"")</f>
+        <v/>
+      </c>
+      <c r="O7" s="4" t="str" cm="1">
+        <f t="array" aca="1" ref="O7" ca="1">IFERROR(IF(AND(INDIRECT(ADDRESS(1+$M7,4+O$1))&lt;&gt;"",ABS(INDIRECT(ADDRESS(1+$M7,4+O$1))-(1/INDIRECT(ADDRESS(1+O$1,4+$M7))))&gt;$T$1),"errado",""),"")</f>
+        <v/>
+      </c>
+      <c r="P7" s="4" t="str" cm="1">
+        <f t="array" aca="1" ref="P7" ca="1">IFERROR(IF(AND(INDIRECT(ADDRESS(1+$M7,4+P$1))&lt;&gt;"",ABS(INDIRECT(ADDRESS(1+$M7,4+P$1))-(1/INDIRECT(ADDRESS(1+P$1,4+$M7))))&gt;$T$1),"errado",""),"")</f>
+        <v/>
+      </c>
+      <c r="Q7" s="4" t="str" cm="1">
+        <f t="array" aca="1" ref="Q7" ca="1">IFERROR(IF(AND(INDIRECT(ADDRESS(1+$M7,4+Q$1))&lt;&gt;"",ABS(INDIRECT(ADDRESS(1+$M7,4+Q$1))-(1/INDIRECT(ADDRESS(1+Q$1,4+$M7))))&gt;$T$1),"errado",""),"")</f>
+        <v/>
+      </c>
+      <c r="R7" s="4" t="str" cm="1">
+        <f t="array" aca="1" ref="R7" ca="1">IFERROR(IF(AND(INDIRECT(ADDRESS(1+$M7,4+R$1))&lt;&gt;"",ABS(INDIRECT(ADDRESS(1+$M7,4+R$1))-(1/INDIRECT(ADDRESS(1+R$1,4+$M7))))&gt;$T$1),"errado",""),"")</f>
+        <v/>
+      </c>
+      <c r="S7" s="4" t="str">
+        <f>IF(AND(J7&lt;&gt;1,J7&lt;&gt;""),"errado","")</f>
+        <v/>
+      </c>
+      <c r="T7" s="4"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="13">
+        <f t="shared" ref="E10:J10" si="2">IF(E1&lt;&gt;"",SUM(E2:E7),"")</f>
+        <v>8.3332999999999995</v>
+      </c>
+      <c r="F10" s="13">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="G10" s="13">
+        <f t="shared" si="2"/>
+        <v>3.5333000000000001</v>
+      </c>
+      <c r="H10" s="13">
+        <f t="shared" si="2"/>
+        <v>1.9166699999999999</v>
+      </c>
+      <c r="I10" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J10" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="3" t="str">
+        <f t="shared" ref="E12:J12" si="3">E1</f>
+        <v>Menor número</v>
+      </c>
+      <c r="F12" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Menor P-Eq</v>
+      </c>
+      <c r="G12" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Mais tempo</v>
+      </c>
+      <c r="H12" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Equilíbrio CH</v>
+      </c>
+      <c r="I12" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J12" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N12" s="14">
+        <f>COUNTA(D2:D7)</f>
+        <v>4</v>
+      </c>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3" t="str">
+        <f>IF(D2&lt;&gt;"",D2,"")</f>
+        <v>Menor número</v>
+      </c>
+      <c r="E13" s="8">
+        <f>IF(AND($D13&lt;&gt;"",E$1&lt;&gt;""),E2/E$10,"")</f>
+        <v>0.12000048000192001</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" ref="F13:J13" si="4">IF(AND($D13&lt;&gt;"",F$1&lt;&gt;""),F2/F$10,"")</f>
+        <v>0.2</v>
+      </c>
+      <c r="G13" s="8">
+        <f t="shared" si="4"/>
+        <v>9.433107859508108E-2</v>
+      </c>
+      <c r="H13" s="8">
+        <f t="shared" si="4"/>
+        <v>0.13043455576598997</v>
+      </c>
+      <c r="I13" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="J13" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N13" s="15">
+        <f>SUMPRODUCT(E10:J10,E20:J20)</f>
+        <v>4.1090394419145477</v>
+      </c>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3" t="str">
+        <f t="shared" ref="D14:D18" si="5">IF(D3&lt;&gt;"",D3,"")</f>
+        <v>Menor P-Eq</v>
+      </c>
+      <c r="E14" s="8">
+        <f t="shared" ref="E14:J18" si="6">IF(AND($D14&lt;&gt;"",E$1&lt;&gt;""),E3/E$10,"")</f>
+        <v>3.9996159984639942E-2</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" si="6"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="G14" s="8">
+        <f t="shared" si="6"/>
+        <v>5.6604307587807434E-2</v>
+      </c>
+      <c r="H14" s="8">
+        <f t="shared" si="6"/>
+        <v>8.6958109638070213E-2</v>
+      </c>
+      <c r="I14" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="J14" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N14" s="15">
+        <f>(N13-N12)/(N12-1)</f>
+        <v>3.6346480638182577E-2</v>
+      </c>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Mais tempo</v>
+      </c>
+      <c r="E15" s="8">
+        <f t="shared" si="6"/>
+        <v>0.36000144000576006</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" si="6"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G15" s="8">
+        <f t="shared" si="6"/>
+        <v>0.28302153793903717</v>
+      </c>
+      <c r="H15" s="8">
+        <f t="shared" si="6"/>
+        <v>0.26086911153197995</v>
+      </c>
+      <c r="I15" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="J15" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N15" s="3" cm="1">
+        <f t="array" ref="N15">INDEX(O22:W22,1,N12)</f>
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Equilíbrio CH</v>
+      </c>
+      <c r="E16" s="8">
+        <f t="shared" si="6"/>
+        <v>0.48000192000768005</v>
+      </c>
+      <c r="F16" s="8">
+        <f t="shared" si="6"/>
+        <v>0.4</v>
+      </c>
+      <c r="G16" s="8">
+        <f t="shared" si="6"/>
+        <v>0.56604307587807434</v>
+      </c>
+      <c r="H16" s="8">
+        <f t="shared" si="6"/>
+        <v>0.52173822306395989</v>
+      </c>
+      <c r="I16" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="J16" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N16" s="15">
+        <f>N14/N15</f>
+        <v>3.2744577151515832E-2</v>
+      </c>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E17" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F17" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G17" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="H17" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I17" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="J17" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="K17" s="16"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E18" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F18" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G18" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="H18" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I18" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="J18" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="K18" s="16" t="str">
+        <f>IF(D18&lt;&gt;"",AVERAGE(E18:J18),"")</f>
+        <v/>
+      </c>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="8">
+        <f>B2</f>
+        <v>0.13619152859074776</v>
+      </c>
+      <c r="F20" s="8">
+        <f>B3</f>
+        <v>6.2556310969296064E-2</v>
+      </c>
+      <c r="G20" s="8">
+        <f>B4</f>
+        <v>0.30930635570252762</v>
+      </c>
+      <c r="H20" s="8">
+        <f>B5</f>
+        <v>0.49194580473742855</v>
+      </c>
+      <c r="I20" s="8" t="str">
+        <f>B6</f>
+        <v/>
+      </c>
+      <c r="J20" s="8" t="str">
+        <f>B7</f>
+        <v/>
+      </c>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N21" s="3">
+        <v>1</v>
+      </c>
+      <c r="O21" s="3">
+        <v>2</v>
+      </c>
+      <c r="P21" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3">
+        <v>5</v>
+      </c>
+      <c r="S21" s="3">
+        <v>6</v>
+      </c>
+      <c r="T21" s="3">
+        <v>7</v>
+      </c>
+      <c r="U21" s="3">
+        <v>8</v>
+      </c>
+      <c r="V21" s="3">
+        <v>9</v>
+      </c>
+      <c r="W21" s="3">
+        <v>10</v>
+      </c>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0.52</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0.89</v>
+      </c>
+      <c r="R22" s="3">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="S22" s="3">
+        <v>1.25</v>
+      </c>
+      <c r="T22" s="3">
+        <v>1.35</v>
+      </c>
+      <c r="U22" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="V22" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="W22" s="3">
+        <v>1.49</v>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y22" s="3"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1"/>
+  <conditionalFormatting sqref="D1:J7">
+    <cfRule type="cellIs" dxfId="20" priority="19" operator="notEqual">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12:J18">
+    <cfRule type="cellIs" dxfId="18" priority="15" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2 F3 G4 H5 I6 J7">
+    <cfRule type="cellIs" dxfId="17" priority="20" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:J7">
+    <cfRule type="expression" dxfId="16" priority="3">
+      <formula>N2="errado"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="4">
+      <formula>AND(OR($D2="",E$1=""),E2&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="5">
+      <formula>AND($D2&lt;&gt;"",E$1&lt;&gt;"",E2="")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2 E3">
+    <cfRule type="cellIs" dxfId="13" priority="18" operator="notEqual">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2 E4">
+    <cfRule type="cellIs" dxfId="12" priority="17" operator="notEqual">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3 F4">
+    <cfRule type="cellIs" dxfId="11" priority="16" operator="notEqual">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2 J4 E5 G7">
+    <cfRule type="cellIs" dxfId="10" priority="14" operator="notEqual">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3 F5">
+    <cfRule type="cellIs" dxfId="9" priority="13" operator="notEqual">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4 G5 J5 H7">
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="notEqual">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2 E6">
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="notEqual">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3 F6 J6 I7">
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="notEqual">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4 G6">
+    <cfRule type="cellIs" dxfId="5" priority="10" operator="notEqual">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5 H6">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="notEqual">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2 E7">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="notEqual">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3 F7">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="notEqual">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N16">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+      <formula>0.1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThanOrEqual">
+      <formula>0.1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6B16E6-DBEF-4019-BD00-E8FCD2429A34}">
+  <dimension ref="A1:Q32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="18"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="I19" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="N19" s="22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="I20" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="K20" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="L20" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="N20" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="O20" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="P20" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q20" s="24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="I21" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="J21" s="25">
+        <v>1</v>
+      </c>
+      <c r="K21" s="26">
+        <v>2</v>
+      </c>
+      <c r="L21" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="N21" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="O21" s="25">
+        <v>1</v>
+      </c>
+      <c r="P21" s="28">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="I22" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="J22" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="K22" s="25">
+        <v>1</v>
+      </c>
+      <c r="L22" s="31">
+        <v>4</v>
+      </c>
+      <c r="N22" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="O22" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="P22" s="25">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="I23" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="J23" s="33">
+        <v>3</v>
+      </c>
+      <c r="K23" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="L23" s="25">
+        <v>1</v>
+      </c>
+      <c r="N23" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="O23" s="24">
+        <v>3</v>
+      </c>
+      <c r="P23" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q23" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="N24" s="35" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="20"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/importarExemplo.xlsx
+++ b/importarExemplo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cgugovbr-my.sharepoint.com/personal/pedro_guimaraes_cgu_gov_br/Documents/Pedro/PPGGO/MODELO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="329" documentId="8_{DAE8B9E6-7CCD-4F8B-BF80-984490CB1294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19B890F2-282D-4FE9-A772-7CDE70022C6C}"/>
+  <xr:revisionPtr revIDLastSave="381" documentId="8_{DAE8B9E6-7CCD-4F8B-BF80-984490CB1294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE331004-F19E-40E2-825D-A6E022CAD707}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D33BA194-2E5A-46CB-BF13-D006A9E4191B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{D33BA194-2E5A-46CB-BF13-D006A9E4191B}"/>
   </bookViews>
   <sheets>
     <sheet name="unidades" sheetId="5" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="101">
   <si>
     <t>Unidade</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>FACOM</t>
-  </si>
-  <si>
-    <t>FAMAT</t>
   </si>
   <si>
     <t>perfil</t>
@@ -373,13 +370,67 @@
     <t>N_orient</t>
   </si>
   <si>
-    <t>FAEFI</t>
-  </si>
-  <si>
-    <t>ICBIM</t>
-  </si>
-  <si>
-    <t>IFILO</t>
+    <t>FEELT</t>
+  </si>
+  <si>
+    <t>FEQUI</t>
+  </si>
+  <si>
+    <t>FACOMp</t>
+  </si>
+  <si>
+    <t>FAGENp</t>
+  </si>
+  <si>
+    <t>FAMATp</t>
+  </si>
+  <si>
+    <t>IBTECp</t>
+  </si>
+  <si>
+    <t>INFISp</t>
+  </si>
+  <si>
+    <t>IQUFUp</t>
+  </si>
+  <si>
+    <t>FECIV</t>
+  </si>
+  <si>
+    <t>ICIAG</t>
+  </si>
+  <si>
+    <t>IERI</t>
+  </si>
+  <si>
+    <t>IGUFU</t>
+  </si>
+  <si>
+    <t>FACOMm</t>
+  </si>
+  <si>
+    <t>FAGENm</t>
+  </si>
+  <si>
+    <t>FAMATm</t>
+  </si>
+  <si>
+    <t>IBTECm</t>
+  </si>
+  <si>
+    <t>INFISm</t>
+  </si>
+  <si>
+    <t>IQUFUm</t>
+  </si>
+  <si>
+    <t>conector</t>
+  </si>
+  <si>
+    <t>&gt;=</t>
+  </si>
+  <si>
+    <t>==</t>
   </si>
 </sst>
 </file>
@@ -513,7 +564,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -632,6 +683,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1116,8 +1168,8 @@
   </sheetPr>
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1134,10 +1186,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="37" t="s">
         <v>79</v>
-      </c>
-      <c r="D1" s="37" t="s">
-        <v>80</v>
       </c>
       <c r="E1" s="37" t="s">
         <v>2</v>
@@ -1146,19 +1198,19 @@
         <v>3</v>
       </c>
       <c r="G1" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="I1" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="J1" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="37" t="s">
         <v>20</v>
-      </c>
-      <c r="J1" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" s="37" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -1169,11 +1221,11 @@
         <v>439</v>
       </c>
       <c r="C2" s="41">
-        <f>IF(A2="","",G2/2+H2/2+K2/2+I2*1.25+J2*2)</f>
+        <f t="shared" ref="C2:C20" si="0">IF(A2="","",G2/2+H2/2+K2/2+I2*1.25+J2*2)</f>
         <v>212.75</v>
       </c>
       <c r="D2" s="41">
-        <f>IF(A2="","",SUM(G2:K2))</f>
+        <f t="shared" ref="D2:D20" si="1">IF(A2="","",SUM(G2:K2))</f>
         <v>292</v>
       </c>
       <c r="E2" s="40">
@@ -1200,157 +1252,137 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="39" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="B3" s="40">
-        <v>420</v>
+        <v>144</v>
       </c>
       <c r="C3" s="41">
-        <f t="shared" ref="C3:C33" si="0">IF(A3="","",G3/2+H3/2+K3/2+I3*1.25+J3*2)</f>
-        <v>60</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="D3" s="41">
-        <f t="shared" ref="D3:D33" si="1">IF(A3="","",SUM(G3:K3))</f>
-        <v>90</v>
+        <f t="shared" si="1"/>
+        <v>34</v>
       </c>
       <c r="E3" s="40">
+        <v>0</v>
+      </c>
+      <c r="F3" s="40">
         <v>1</v>
       </c>
-      <c r="F3" s="40">
-        <v>3</v>
-      </c>
       <c r="G3" s="42">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H3" s="40">
-        <v>40</v>
-      </c>
-      <c r="I3" s="40">
-        <v>20</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="I3" s="40"/>
       <c r="J3" s="40"/>
-      <c r="K3" s="40">
-        <v>10</v>
-      </c>
+      <c r="K3" s="40"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="39" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="B4" s="40">
-        <v>1080</v>
+        <v>25</v>
       </c>
       <c r="C4" s="41">
         <f t="shared" si="0"/>
-        <v>42.5</v>
+        <v>0</v>
       </c>
       <c r="D4" s="41">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E4" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="40">
-        <v>2</v>
-      </c>
-      <c r="G4" s="42">
-        <v>10</v>
-      </c>
-      <c r="H4" s="40">
-        <v>10</v>
-      </c>
-      <c r="I4" s="40">
-        <v>10</v>
-      </c>
-      <c r="J4" s="40">
-        <v>10</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G4" s="42"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
       <c r="K4" s="40"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="39" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="B5" s="40">
-        <v>720</v>
+        <v>24</v>
       </c>
       <c r="C5" s="41">
         <f t="shared" si="0"/>
-        <v>196.75</v>
+        <v>0</v>
       </c>
       <c r="D5" s="41">
         <f t="shared" si="1"/>
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="E5" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="40">
-        <v>1</v>
-      </c>
-      <c r="G5" s="42">
-        <v>23</v>
-      </c>
-      <c r="H5" s="40">
-        <v>30</v>
-      </c>
-      <c r="I5" s="40">
-        <v>47</v>
-      </c>
-      <c r="J5" s="40">
-        <v>49</v>
-      </c>
-      <c r="K5" s="40">
-        <v>27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G5" s="42"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="39" t="s">
         <v>83</v>
       </c>
       <c r="B6" s="40">
-        <v>248</v>
+        <v>28</v>
       </c>
       <c r="C6" s="41">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D6" s="41">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="E6" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="40">
-        <v>1</v>
-      </c>
-      <c r="G6" s="42">
-        <v>15</v>
-      </c>
-      <c r="H6" s="40">
-        <v>15</v>
-      </c>
-      <c r="I6" s="40">
-        <v>12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G6" s="42"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
       <c r="J6" s="40"/>
       <c r="K6" s="40"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="39"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="41" t="str">
+      <c r="A7" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="40">
+        <v>84</v>
+      </c>
+      <c r="C7" s="41">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D7" s="41" t="str">
+        <v>0</v>
+      </c>
+      <c r="D7" s="41">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="40">
+        <v>0</v>
+      </c>
+      <c r="F7" s="40">
+        <v>0</v>
+      </c>
       <c r="G7" s="42"/>
       <c r="H7" s="40"/>
       <c r="I7" s="40"/>
@@ -1358,18 +1390,26 @@
       <c r="K7" s="40"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="39"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="41" t="str">
+      <c r="A8" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="40">
+        <v>68</v>
+      </c>
+      <c r="C8" s="41">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D8" s="41" t="str">
+        <v>0</v>
+      </c>
+      <c r="D8" s="41">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="40">
+        <v>0</v>
+      </c>
+      <c r="F8" s="40">
+        <v>0</v>
+      </c>
       <c r="G8" s="42"/>
       <c r="H8" s="40"/>
       <c r="I8" s="40"/>
@@ -1377,18 +1417,26 @@
       <c r="K8" s="40"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="39"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="41" t="str">
+      <c r="A9" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="40">
+        <v>89</v>
+      </c>
+      <c r="C9" s="41">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D9" s="41" t="str">
+        <v>0</v>
+      </c>
+      <c r="D9" s="41">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="40">
+        <v>0</v>
+      </c>
+      <c r="F9" s="40">
+        <v>0</v>
+      </c>
       <c r="G9" s="42"/>
       <c r="H9" s="40"/>
       <c r="I9" s="40"/>
@@ -1396,56 +1444,92 @@
       <c r="K9" s="40"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="39"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="41" t="str">
+      <c r="A10" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="40">
+        <v>147</v>
+      </c>
+      <c r="C10" s="41">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D10" s="41" t="str">
+        <v>25</v>
+      </c>
+      <c r="D10" s="41">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="40"/>
+        <v>50</v>
+      </c>
+      <c r="E10" s="40">
+        <v>0</v>
+      </c>
+      <c r="F10" s="40">
+        <v>1</v>
+      </c>
+      <c r="G10" s="42">
+        <v>25</v>
+      </c>
+      <c r="H10" s="40">
+        <v>25</v>
+      </c>
       <c r="I10" s="40"/>
       <c r="J10" s="40"/>
       <c r="K10" s="40"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="39"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="41" t="str">
+      <c r="A11" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="40">
+        <v>171</v>
+      </c>
+      <c r="C11" s="41">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D11" s="41" t="str">
+        <v>27.5</v>
+      </c>
+      <c r="D11" s="41">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
+        <v>40</v>
+      </c>
+      <c r="E11" s="40">
+        <v>0</v>
+      </c>
+      <c r="F11" s="40">
+        <v>2</v>
+      </c>
+      <c r="G11" s="42">
+        <v>11</v>
+      </c>
+      <c r="H11" s="40">
+        <v>16</v>
+      </c>
+      <c r="I11" s="40">
+        <v>10</v>
+      </c>
       <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
+      <c r="K11" s="40">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="39"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="41" t="str">
+      <c r="A12" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="40">
+        <v>19</v>
+      </c>
+      <c r="C12" s="41">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D12" s="41" t="str">
+        <v>0</v>
+      </c>
+      <c r="D12" s="41">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="40">
+        <v>0</v>
+      </c>
+      <c r="F12" s="40">
+        <v>0</v>
+      </c>
       <c r="G12" s="42"/>
       <c r="H12" s="40"/>
       <c r="I12" s="40"/>
@@ -1453,56 +1537,96 @@
       <c r="K12" s="40"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="39"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="41" t="str">
+      <c r="A13" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="40">
+        <v>137</v>
+      </c>
+      <c r="C13" s="41">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D13" s="41" t="str">
+        <v>30.5</v>
+      </c>
+      <c r="D13" s="41">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
+        <v>43</v>
+      </c>
+      <c r="E13" s="40">
+        <v>0</v>
+      </c>
+      <c r="F13" s="40">
+        <v>2</v>
+      </c>
+      <c r="G13" s="42">
+        <v>8</v>
+      </c>
+      <c r="H13" s="40">
+        <v>14</v>
+      </c>
+      <c r="I13" s="40">
+        <v>12</v>
+      </c>
       <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
+      <c r="K13" s="40">
+        <v>9</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="39"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="41" t="str">
+      <c r="A14" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="40">
+        <v>378</v>
+      </c>
+      <c r="C14" s="41">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D14" s="41" t="str">
+        <v>74.5</v>
+      </c>
+      <c r="D14" s="41">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
+        <v>125</v>
+      </c>
+      <c r="E14" s="40">
+        <v>0</v>
+      </c>
+      <c r="F14" s="40">
+        <v>3</v>
+      </c>
+      <c r="G14" s="42">
+        <v>32</v>
+      </c>
+      <c r="H14" s="40">
+        <v>73</v>
+      </c>
+      <c r="I14" s="40">
+        <v>16</v>
+      </c>
       <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
+      <c r="K14" s="40">
+        <v>4</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="39"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="41" t="str">
+      <c r="A15" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" s="40">
+        <v>12</v>
+      </c>
+      <c r="C15" s="41">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D15" s="41" t="str">
+        <v>0</v>
+      </c>
+      <c r="D15" s="41">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="40">
+        <v>0</v>
+      </c>
+      <c r="F15" s="40">
+        <v>0</v>
+      </c>
       <c r="G15" s="42"/>
       <c r="H15" s="40"/>
       <c r="I15" s="40"/>
@@ -1510,37 +1634,57 @@
       <c r="K15" s="40"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="39"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="41" t="str">
+      <c r="A16" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="40">
+        <v>299</v>
+      </c>
+      <c r="C16" s="41">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D16" s="41" t="str">
+        <v>30</v>
+      </c>
+      <c r="D16" s="41">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="40"/>
+        <v>60</v>
+      </c>
+      <c r="E16" s="40">
+        <v>0</v>
+      </c>
+      <c r="F16" s="40">
+        <v>2</v>
+      </c>
+      <c r="G16" s="42">
+        <v>20</v>
+      </c>
+      <c r="H16" s="40">
+        <v>40</v>
+      </c>
       <c r="I16" s="40"/>
       <c r="J16" s="40"/>
       <c r="K16" s="40"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="39"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="41" t="str">
+      <c r="A17" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="40">
+        <v>31</v>
+      </c>
+      <c r="C17" s="41">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D17" s="41" t="str">
+        <v>0</v>
+      </c>
+      <c r="D17" s="41">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="40">
+        <v>0</v>
+      </c>
+      <c r="F17" s="40">
+        <v>0</v>
+      </c>
       <c r="G17" s="42"/>
       <c r="H17" s="40"/>
       <c r="I17" s="40"/>
@@ -1548,18 +1692,26 @@
       <c r="K17" s="40"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="39"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="41" t="str">
-        <f>IF(A18="","",G18/2+H18/2+K18/2+I18*1.25+J18*2)</f>
-        <v/>
-      </c>
-      <c r="D18" s="41" t="str">
+      <c r="A18" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" s="40">
+        <v>34</v>
+      </c>
+      <c r="C18" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D18" s="41">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="40">
+        <v>0</v>
+      </c>
+      <c r="F18" s="40">
+        <v>0</v>
+      </c>
       <c r="G18" s="42"/>
       <c r="H18" s="40"/>
       <c r="I18" s="40"/>
@@ -1567,18 +1719,26 @@
       <c r="K18" s="40"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="39"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="41" t="str">
+      <c r="A19" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" s="40">
+        <v>34</v>
+      </c>
+      <c r="C19" s="41">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D19" s="41" t="str">
+        <v>0</v>
+      </c>
+      <c r="D19" s="41">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="40">
+        <v>0</v>
+      </c>
+      <c r="F19" s="40">
+        <v>0</v>
+      </c>
       <c r="G19" s="42"/>
       <c r="H19" s="40"/>
       <c r="I19" s="40"/>
@@ -1586,18 +1746,26 @@
       <c r="K19" s="40"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="39"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="41" t="str">
+      <c r="A20" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="40">
+        <v>41</v>
+      </c>
+      <c r="C20" s="41">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D20" s="41" t="str">
+        <v>0</v>
+      </c>
+      <c r="D20" s="41">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="40">
+        <v>0</v>
+      </c>
+      <c r="F20" s="40">
+        <v>0</v>
+      </c>
       <c r="G20" s="42"/>
       <c r="H20" s="40"/>
       <c r="I20" s="40"/>
@@ -1608,11 +1776,11 @@
       <c r="A21" s="39"/>
       <c r="B21" s="40"/>
       <c r="C21" s="41" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C21:C33" si="2">IF(A21="","",G21/2+H21/2+K21/2+I21*1.25+J21*2)</f>
         <v/>
       </c>
       <c r="D21" s="41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D21:D33" si="3">IF(A21="","",SUM(G21:K21))</f>
         <v/>
       </c>
       <c r="E21" s="40"/>
@@ -1627,11 +1795,11 @@
       <c r="A22" s="39"/>
       <c r="B22" s="40"/>
       <c r="C22" s="41" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D22" s="41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E22" s="40"/>
@@ -1646,11 +1814,11 @@
       <c r="A23" s="39"/>
       <c r="B23" s="40"/>
       <c r="C23" s="41" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D23" s="41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E23" s="40"/>
@@ -1665,11 +1833,11 @@
       <c r="A24" s="39"/>
       <c r="B24" s="40"/>
       <c r="C24" s="41" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D24" s="41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E24" s="40"/>
@@ -1684,11 +1852,11 @@
       <c r="A25" s="39"/>
       <c r="B25" s="40"/>
       <c r="C25" s="41" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D25" s="41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E25" s="40"/>
@@ -1703,11 +1871,11 @@
       <c r="A26" s="39"/>
       <c r="B26" s="40"/>
       <c r="C26" s="41" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D26" s="41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E26" s="40"/>
@@ -1722,11 +1890,11 @@
       <c r="A27" s="39"/>
       <c r="B27" s="40"/>
       <c r="C27" s="41" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D27" s="41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E27" s="40"/>
@@ -1741,11 +1909,11 @@
       <c r="A28" s="39"/>
       <c r="B28" s="40"/>
       <c r="C28" s="41" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D28" s="41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E28" s="40"/>
@@ -1760,11 +1928,11 @@
       <c r="A29" s="39"/>
       <c r="B29" s="40"/>
       <c r="C29" s="41" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D29" s="41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E29" s="40"/>
@@ -1779,11 +1947,11 @@
       <c r="A30" s="39"/>
       <c r="B30" s="40"/>
       <c r="C30" s="41" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D30" s="41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E30" s="40"/>
@@ -1798,11 +1966,11 @@
       <c r="A31" s="39"/>
       <c r="B31" s="40"/>
       <c r="C31" s="41" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D31" s="41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E31" s="40"/>
@@ -1817,11 +1985,11 @@
       <c r="A32" s="39"/>
       <c r="B32" s="40"/>
       <c r="C32" s="41" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D32" s="41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E32" s="40"/>
@@ -1836,11 +2004,11 @@
       <c r="A33" s="39"/>
       <c r="B33" s="40"/>
       <c r="C33" s="41" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D33" s="41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E33" s="40"/>
@@ -1852,7 +2020,10 @@
       <c r="K33" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K20">
+    <sortCondition ref="A2:A20"/>
+  </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -1862,46 +2033,47 @@
   <sheetPr>
     <tabColor theme="8" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>7</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1927,10 +2099,13 @@
       <c r="I2">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1956,10 +2131,13 @@
       <c r="I3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1985,10 +2163,13 @@
       <c r="I4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -2014,10 +2195,13 @@
       <c r="I5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5" s="44" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2043,10 +2227,13 @@
       <c r="I6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="44" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2073,9 +2260,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8">
         <v>1.65</v>
@@ -2114,7 +2301,7 @@
   </sheetPr>
   <dimension ref="A1:Y24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -2134,14 +2321,14 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E1" s="3" t="str">
         <f>IF(D2&lt;&gt;"",D2,"")</f>
@@ -2208,7 +2395,7 @@
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2" s="10">
         <f>IF($D2="","",1)</f>
@@ -2275,7 +2462,7 @@
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" s="11">
         <v>0.33329999999999999</v>
@@ -2339,7 +2526,7 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4" s="11">
         <v>3</v>
@@ -2403,7 +2590,7 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" s="11">
         <v>4</v>
@@ -2627,7 +2814,7 @@
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" s="13">
         <f t="shared" ref="E10:J10" si="2">IF(E1&lt;&gt;"",SUM(E2:E7),"")</f>
@@ -2701,7 +2888,7 @@
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12" s="3" t="str">
         <f t="shared" ref="E12:J12" si="3">E1</f>
@@ -2730,7 +2917,7 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N12" s="14">
         <f>COUNTA(D2:D7)</f>
@@ -2783,7 +2970,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N13" s="15">
         <f>SUMPRODUCT(E10:J10,E20:J20)</f>
@@ -2836,7 +3023,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N14" s="15">
         <f>(N13-N12)/(N12-1)</f>
@@ -2889,7 +3076,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N15" s="3" cm="1">
         <f t="array" ref="N15">INDEX(O22:W22,1,N12)</f>
@@ -2942,7 +3129,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N16" s="15">
         <f>N14/N15</f>
@@ -3145,7 +3332,7 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N21" s="3">
         <v>1</v>
@@ -3194,7 +3381,7 @@
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -3227,7 +3414,7 @@
         <v>1.49</v>
       </c>
       <c r="X22" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Y22" s="3"/>
     </row>
@@ -3393,8 +3580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6B16E6-DBEF-4019-BD00-E8FCD2429A34}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3405,7 +3592,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -3422,7 +3609,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -3439,7 +3626,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -3456,7 +3643,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -3467,7 +3654,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
@@ -3478,10 +3665,10 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -3491,10 +3678,10 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
@@ -3504,10 +3691,10 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
@@ -3517,10 +3704,10 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="19" t="s">
         <v>49</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>50</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
@@ -3530,10 +3717,10 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
@@ -3543,10 +3730,10 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
@@ -3565,7 +3752,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B14" s="19"/>
       <c r="C14" s="18"/>
@@ -3576,7 +3763,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B16" s="20"/>
       <c r="C16" s="20"/>
@@ -3591,7 +3778,7 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B17" s="20"/>
       <c r="C17" s="20"/>
@@ -3606,7 +3793,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B18" s="20"/>
       <c r="C18" s="20"/>
@@ -3617,7 +3804,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B19" s="20"/>
       <c r="C19" s="20"/>
@@ -3626,15 +3813,15 @@
       <c r="F19" s="20"/>
       <c r="G19" s="20"/>
       <c r="I19" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="N19" s="22" t="s">
         <v>58</v>
-      </c>
-      <c r="N19" s="22" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B20" s="20"/>
       <c r="C20" s="20"/>
@@ -3643,33 +3830,33 @@
       <c r="F20" s="20"/>
       <c r="G20" s="20"/>
       <c r="I20" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J20" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="K20" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="K20" s="24" t="s">
+      <c r="L20" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="L20" s="24" t="s">
-        <v>63</v>
-      </c>
       <c r="N20" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O20" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="P20" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="P20" s="24" t="s">
+      <c r="Q20" s="24" t="s">
         <v>62</v>
-      </c>
-      <c r="Q20" s="24" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
@@ -3678,7 +3865,7 @@
       <c r="F21" s="20"/>
       <c r="G21" s="20"/>
       <c r="I21" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J21" s="25">
         <v>1</v>
@@ -3687,10 +3874,10 @@
         <v>2</v>
       </c>
       <c r="L21" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N21" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O21" s="25">
         <v>1</v>
@@ -3699,12 +3886,12 @@
         <v>3</v>
       </c>
       <c r="Q21" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B22" s="20"/>
       <c r="C22" s="20"/>
@@ -3713,10 +3900,10 @@
       <c r="F22" s="20"/>
       <c r="G22" s="20"/>
       <c r="I22" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J22" s="30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K22" s="25">
         <v>1</v>
@@ -3725,10 +3912,10 @@
         <v>4</v>
       </c>
       <c r="N22" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O22" s="32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P22" s="25">
         <v>1</v>
@@ -3739,7 +3926,7 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B23" s="20"/>
       <c r="C23" s="20"/>
@@ -3748,25 +3935,25 @@
       <c r="F23" s="20"/>
       <c r="G23" s="20"/>
       <c r="I23" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J23" s="33">
         <v>3</v>
       </c>
       <c r="K23" s="34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L23" s="25">
         <v>1</v>
       </c>
       <c r="N23" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O23" s="24">
         <v>3</v>
       </c>
       <c r="P23" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q23" s="25">
         <v>1</v>
@@ -3774,7 +3961,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B24" s="20"/>
       <c r="C24" s="20"/>
@@ -3783,12 +3970,12 @@
       <c r="F24" s="20"/>
       <c r="G24" s="20"/>
       <c r="N24" s="35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B25" s="20"/>
       <c r="C25" s="20"/>
@@ -3799,7 +3986,7 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B26" s="20"/>
       <c r="C26" s="20"/>
@@ -3813,7 +4000,7 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
@@ -3827,7 +4014,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
@@ -3841,7 +4028,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B29" s="20"/>
       <c r="C29" s="20"/>
@@ -3867,7 +4054,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B31" s="20"/>
       <c r="C31" s="20"/>
@@ -3881,7 +4068,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B32" s="20"/>
       <c r="C32" s="20"/>
